--- a/promts/prompts.xlsx
+++ b/promts/prompts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alber\Desktop\CBMS\Pheno-LLM\promts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7002850-DFE3-498F-9707-41EBD599083C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF043914-0EEA-4BA0-B104-581C2FE2ABAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -438,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="273.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="247.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -481,7 +481,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="346.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="263.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -492,7 +492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="271.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="240.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -503,7 +503,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="343.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
